--- a/src/main/resources/templates/excel/template.xlsx
+++ b/src/main/resources/templates/excel/template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenguojun/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenguojun/Idea/java/topie/topie-campus/src/main/resources/templates/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="80" yWindow="-19360" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="教师" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="41">
-  <si>
-    <t>唯一编码</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="64">
   <si>
     <t>姓名</t>
   </si>
@@ -36,9 +33,6 @@
     <t>性别</t>
   </si>
   <si>
-    <t>手机</t>
-  </si>
-  <si>
     <t>出生日期</t>
   </si>
   <si>
@@ -48,15 +42,6 @@
     <t>男</t>
   </si>
   <si>
-    <t>编码和姓名必填</t>
-  </si>
-  <si>
-    <t>教师唯一编码(多个以#分开)</t>
-  </si>
-  <si>
-    <t>032320#032321</t>
-  </si>
-  <si>
     <t>老师示例1</t>
   </si>
   <si>
@@ -148,13 +133,97 @@
   </si>
   <si>
     <t>学生示例29</t>
+  </si>
+  <si>
+    <t>职工号</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>汉族</t>
+  </si>
+  <si>
+    <t>政治面貌</t>
+  </si>
+  <si>
+    <t>学院</t>
+  </si>
+  <si>
+    <t>系(所)</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>毕业院校</t>
+  </si>
+  <si>
+    <t>毕业专业</t>
+  </si>
+  <si>
+    <t>学历</t>
+  </si>
+  <si>
+    <t>学位</t>
+  </si>
+  <si>
+    <t>职称</t>
+  </si>
+  <si>
+    <t>职务</t>
+  </si>
+  <si>
+    <t>学科方向</t>
+  </si>
+  <si>
+    <t>教师资格证号</t>
+  </si>
+  <si>
+    <t>主讲教师资格证号</t>
+  </si>
+  <si>
+    <t>人事职工号</t>
+  </si>
+  <si>
+    <t>是否实验室人员</t>
+  </si>
+  <si>
+    <t>教学质量评价</t>
+  </si>
+  <si>
+    <t>群众</t>
+  </si>
+  <si>
+    <t>软件学院</t>
+  </si>
+  <si>
+    <t>计算机学院</t>
+  </si>
+  <si>
+    <t>18600200799@163.com</t>
+  </si>
+  <si>
+    <t>学号</t>
+  </si>
+  <si>
+    <t>团员</t>
+  </si>
+  <si>
+    <t>专业</t>
+  </si>
+  <si>
+    <t>软件工程</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -183,6 +252,22 @@
       <color theme="1"/>
       <name val="防宋"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -210,8 +295,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -229,7 +318,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -505,93 +598,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="3" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="6" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="24.83203125" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>32320</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4">
-        <v>18600200791</v>
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E2" s="5">
         <v>33158</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
+        <v>18600200799</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>32321</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4">
-        <v>18600200792</v>
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E3" s="5">
         <v>33159</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4">
+        <v>18600200799</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -599,703 +776,889 @@
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="36.5" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="36.5" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>32323</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="4">
         <v>18600200791</v>
       </c>
-      <c r="E2" s="5">
+      <c r="G2" s="5">
         <v>33158</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>32324</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="4">
         <v>18600200792</v>
       </c>
-      <c r="E3" s="5">
+      <c r="G3" s="5">
         <v>33159</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>32325</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="4">
         <v>18600200793</v>
       </c>
-      <c r="E4" s="5">
+      <c r="G4" s="5">
         <v>33160</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>32326</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="4">
         <v>18600200794</v>
       </c>
-      <c r="E5" s="5">
+      <c r="G5" s="5">
         <v>33161</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>32327</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="4">
         <v>18600200795</v>
       </c>
-      <c r="E6" s="5">
+      <c r="G6" s="5">
         <v>33162</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>32328</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="4">
         <v>18600200796</v>
       </c>
-      <c r="E7" s="5">
+      <c r="G7" s="5">
         <v>33163</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>32329</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="4">
         <v>18600200797</v>
       </c>
-      <c r="E8" s="5">
+      <c r="G8" s="5">
         <v>33164</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>32330</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="4">
         <v>18600200798</v>
       </c>
-      <c r="E9" s="5">
+      <c r="G9" s="5">
         <v>33165</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>32331</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="4">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="4">
         <v>18600200799</v>
       </c>
-      <c r="E10" s="5">
+      <c r="G10" s="5">
         <v>33166</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>32332</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="4">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="4">
         <v>18600200800</v>
       </c>
-      <c r="E11" s="5">
+      <c r="G11" s="5">
         <v>33167</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>32333</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="4">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="4">
         <v>18600200801</v>
       </c>
-      <c r="E12" s="5">
+      <c r="G12" s="5">
         <v>33168</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>32334</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="4">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="4">
         <v>18600200802</v>
       </c>
-      <c r="E13" s="5">
+      <c r="G13" s="5">
         <v>33169</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>32335</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="4">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="4">
         <v>18600200803</v>
       </c>
-      <c r="E14" s="5">
+      <c r="G14" s="5">
         <v>33170</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>32336</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="4">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="4">
         <v>18600200804</v>
       </c>
-      <c r="E15" s="5">
+      <c r="G15" s="5">
         <v>33171</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>32337</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="4">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="4">
         <v>18600200805</v>
       </c>
-      <c r="E16" s="5">
+      <c r="G16" s="5">
         <v>33172</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>32338</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="4">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="4">
         <v>18600200806</v>
       </c>
-      <c r="E17" s="5">
+      <c r="G17" s="5">
         <v>33173</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>32339</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="4">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="4">
         <v>18600200807</v>
       </c>
-      <c r="E18" s="5">
+      <c r="G18" s="5">
         <v>33174</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>32340</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="4">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="4">
         <v>18600200808</v>
       </c>
-      <c r="E19" s="5">
+      <c r="G19" s="5">
         <v>33175</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>32341</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="4">
+        <v>4</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="4">
         <v>18600200809</v>
       </c>
-      <c r="E20" s="5">
+      <c r="G20" s="5">
         <v>33176</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>32342</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="4">
+        <v>4</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="4">
         <v>18600200810</v>
       </c>
-      <c r="E21" s="5">
+      <c r="G21" s="5">
         <v>33177</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>32343</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="4">
+        <v>4</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="4">
         <v>18600200811</v>
       </c>
-      <c r="E22" s="5">
+      <c r="G22" s="5">
         <v>33178</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>32344</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="4">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="4">
         <v>18600200812</v>
       </c>
-      <c r="E23" s="5">
+      <c r="G23" s="5">
         <v>33179</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>32345</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="4">
+        <v>4</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="4">
         <v>18600200813</v>
       </c>
-      <c r="E24" s="5">
+      <c r="G24" s="5">
         <v>33180</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>32346</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="4">
+        <v>4</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="4">
         <v>18600200814</v>
       </c>
-      <c r="E25" s="5">
+      <c r="G25" s="5">
         <v>33181</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>32347</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="4">
+        <v>4</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="4">
         <v>18600200815</v>
       </c>
-      <c r="E26" s="5">
+      <c r="G26" s="5">
         <v>33182</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>32348</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="4">
+        <v>4</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="4">
         <v>18600200816</v>
       </c>
-      <c r="E27" s="5">
+      <c r="G27" s="5">
         <v>33183</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>32349</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="4">
+        <v>4</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="4">
         <v>18600200817</v>
       </c>
-      <c r="E28" s="5">
+      <c r="G28" s="5">
         <v>33184</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>32350</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="4">
+        <v>4</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="4">
         <v>18600200818</v>
       </c>
-      <c r="E29" s="5">
+      <c r="G29" s="5">
         <v>33185</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>32351</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="4">
+        <v>4</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="4">
         <v>18600200819</v>
       </c>
-      <c r="E30" s="5">
+      <c r="G30" s="5">
         <v>33186</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>9</v>
+      <c r="H30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/main/resources/templates/excel/template.xlsx
+++ b/src/main/resources/templates/excel/template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="-19360" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="教师" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="63">
   <si>
     <t>姓名</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>出生日期</t>
-  </si>
-  <si>
-    <t>个人简介</t>
   </si>
   <si>
     <t>男</t>
@@ -600,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -627,7 +624,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -636,61 +633,61 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -698,29 +695,29 @@
         <v>32320</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="5">
         <v>33158</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4">
         <v>18600200799</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="4"/>
@@ -730,29 +727,29 @@
         <v>32321</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="5">
         <v>33159</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4">
         <v>18600200799</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="4"/>
@@ -767,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -778,15 +775,15 @@
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="5" width="12.33203125" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="36.5" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -795,25 +792,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -821,28 +818,31 @@
         <v>32323</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="4">
         <v>18600200791</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="5">
         <v>33158</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -850,28 +850,31 @@
         <v>32324</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="4">
         <v>18600200792</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="5">
         <v>33159</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -879,28 +882,31 @@
         <v>32325</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="4">
         <v>18600200793</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="5">
         <v>33160</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -908,28 +914,31 @@
         <v>32326</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F5" s="4">
         <v>18600200794</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="5">
         <v>33161</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -937,28 +946,31 @@
         <v>32327</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="4">
         <v>18600200795</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="5">
         <v>33162</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -966,28 +978,31 @@
         <v>32328</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="4">
         <v>18600200796</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="5">
         <v>33163</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -995,28 +1010,31 @@
         <v>32329</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="4">
         <v>18600200797</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="5">
         <v>33164</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I8" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1024,28 +1042,31 @@
         <v>32330</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="4">
         <v>18600200798</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="5">
         <v>33165</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I9" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1053,28 +1074,31 @@
         <v>32331</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10" s="4">
         <v>18600200799</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="5">
         <v>33166</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I10" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1082,28 +1106,31 @@
         <v>32332</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" s="4">
         <v>18600200800</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="5">
         <v>33167</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I11" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1111,28 +1138,31 @@
         <v>32333</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="4">
         <v>18600200801</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="5">
         <v>33168</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I12" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1140,28 +1170,31 @@
         <v>32334</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="4">
         <v>18600200802</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="5">
         <v>33169</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I13" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1169,28 +1202,31 @@
         <v>32335</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="4">
         <v>18600200803</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="5">
         <v>33170</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I14" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1198,28 +1234,31 @@
         <v>32336</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" s="4">
         <v>18600200804</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="5">
         <v>33171</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I15" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1227,434 +1266,479 @@
         <v>32337</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="4">
         <v>18600200805</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="5">
         <v>33172</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I16" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>32338</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" s="4">
         <v>18600200806</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="5">
         <v>33173</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I17" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>32339</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18" s="4">
         <v>18600200807</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="5">
         <v>33174</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I18" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>32340</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" s="4">
         <v>18600200808</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="5">
         <v>33175</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I19" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>32341</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20" s="4">
         <v>18600200809</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="5">
         <v>33176</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I20" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>32342</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="4">
         <v>18600200810</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="5">
         <v>33177</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I21" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>32343</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F22" s="4">
         <v>18600200811</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="5">
         <v>33178</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I22" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>32344</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23" s="4">
         <v>18600200812</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="5">
         <v>33179</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I23" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>32345</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" s="4">
         <v>18600200813</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="5">
         <v>33180</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I24" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>32346</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25" s="4">
         <v>18600200814</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="5">
         <v>33181</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I25" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>32347</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F26" s="4">
         <v>18600200815</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="5">
         <v>33182</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I26" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>32348</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="4">
         <v>18600200816</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="5">
         <v>33183</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I27" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>32349</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F28" s="4">
         <v>18600200817</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="5">
         <v>33184</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I28" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>32350</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F29" s="4">
         <v>18600200818</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="5">
         <v>33185</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I29" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>32351</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F30" s="4">
         <v>18600200819</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="5">
         <v>33186</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I30" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
